--- a/biology/Botanique/Internoretia_fryeana/Internoretia_fryeana.xlsx
+++ b/biology/Botanique/Internoretia_fryeana/Internoretia_fryeana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Internoretia fryeana est une espèce d’algues brunes de la famille des Acinetosporaceae.Selon AlgaeBase                                           (2 avril 2018)[1], ITIS      (2 avril 2018)[2], et World Register of Marine Species                               (2 avril 2018)[3], il s'agit de la seule espèce du genre Internoretia, et elle était considérée autrefois à tort comme une espèce d'algues vertes de la famille des Chaetophoraceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Internoretia fryeana est une espèce d’algues brunes de la famille des Acinetosporaceae.Selon AlgaeBase                                           (2 avril 2018), ITIS      (2 avril 2018), et World Register of Marine Species                               (2 avril 2018), il s'agit de la seule espèce du genre Internoretia, et elle était considérée autrefois à tort comme une espèce d'algues vertes de la famille des Chaetophoraceae.
 </t>
         </is>
       </c>
